--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108473.1520542814</v>
+        <v>-64618.9592505863</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17257637.27977393</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>492028.9342484441</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8713225.012438489</v>
+        <v>8732471.861058269</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>27.58131014190308</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>119.8656050382418</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>192.5216849106937</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.67859516108212</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,19 +902,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>61.79827282811492</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.6878046880808</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>163.27222165456</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>24.57208788407295</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>11.3612302585477</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084561</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253733</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>162.8623864116043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.6403417557258</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0564930767001</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054614</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>165.072747522715</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>71.43430199953329</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.1772265485036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,19 +2056,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649892</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>155.577622560263</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.40623084712934</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436908</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253733</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>67.68074767021407</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.3456594571962</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394005</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>214.1188386017618</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>129.7139627068463</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>32.52992480485451</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359887006</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>24.34318456170487</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540696</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1384.794196268269</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>946.6517234516925</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>510.741938626137</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>76.9671937844322</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>857.0776321906106</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>1699.767264620224</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2234.481949833809</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1815.33948641312</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1407.053362712773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064426</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.5817488438802</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>155.0200373271052</v>
+        <v>955.6037336452929</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860121</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091157</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2028.825591091157</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>1741.870082961587</v>
       </c>
       <c r="W4" t="n">
-        <v>992.2117929153466</v>
+        <v>1741.870082961587</v>
       </c>
       <c r="X4" t="n">
-        <v>746.820038248759</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.4003675628674</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>977.375145460345</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>945.5057646751936</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.6770856874316</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.5118521651375</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>122.4097833889649</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D8" t="n">
-        <v>90.54040260381345</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>60.80606180251268</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.2337237050423</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>929.8492973250826</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1387.464870945123</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1387.464870945123</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1387.464870945123</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1679.797747853167</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1679.797747853167</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1679.797747853167</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.951812606223</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1848.951812606223</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1628.884585479262</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1628.884585479262</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1628.884585479262</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1224.029130890295</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>804.8866674696061</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.6005437692595</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.1507812434172</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6943200800595</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6040312266128</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.4836165535665</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.0997781697281</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.714688435912</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04270941258207</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.6010343787944</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>845.2166079988348</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1125.430446016553</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1125.430446016553</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1125.430446016553</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1125.430446016553</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1125.430446016553</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.046019636594</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.218797730933</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.763360179316</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.584716509918</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.248169509886</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.130651571886</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8078973050797</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.9404615439596</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.4546823231804</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>887.4750733290557</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>714.9133618122806</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>549.0353690138033</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>379.2773652645406</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>202.5703112262968</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.97903625212447</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.97903625212447</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.97903625212447</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.5587214168143</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.5587214168143</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.7686031847754</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>999.3841768048156</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1441.64297996246</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1848.951812606223</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1848.951812606223</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1848.951812606223</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1848.951812606223</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1848.951812606223</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1848.951812606223</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1848.951812606223</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1824.131521814231</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1552.105117400522</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1306.713362733935</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1079.293692048043</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2245.579471736856</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1807.436998920279</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1371.527214094724</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>937.7524692530187</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>509.8850396622265</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>108.4872082854899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.01121812534095</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>531.8491162053989</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.199408163577</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.259374416436</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>2474.73311026175</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
-        <v>2474.73311026175</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3454.912776832056</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4283.222651665452</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4829.721437624047</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4829.721437624047</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4746.069563807884</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.002336680923</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4266.780033997939</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3904.163083931766</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3499.307629342799</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3080.16516592211</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2671.879042221763</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7661737437737</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.309712580416</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2194237269693</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.099009053923</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7151706700846</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.3300809362685</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>122.6581019129385</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2164268791509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.66141213695</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.83419023129</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.378752679673</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.200109010274</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.863562010243</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.746044072242</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.423289805436</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.5558540443161</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.0700748235369</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.090465829412</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.5287543126369</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.6507615141597</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8927577648969</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.1857037266532</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.59442875248078</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.59442875248095</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1741139171708</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
-        <v>457.9325684883064</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.1424502562675</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.62631743718</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.885120594825</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.554369820607</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.061263790948</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.014869612596</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.135423191051</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.702422444157</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.746914314587</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.720509900878</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.328755234291</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.909084548399</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2251.958900913286</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.816428096709</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.308967074886</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.534222233181</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6667926423894</v>
+        <v>516.962436093938</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2689612656533</v>
+        <v>115.5646047172019</v>
       </c>
       <c r="H14" t="n">
-        <v>97.13880670886954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.11253943818</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.11253943818</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.292206008486</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4289.602080841882</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4752.448992984314</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4532.381765857353</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.159463174369</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3910.542513108196</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3505.687058519229</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3086.54459509854</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.258471398193</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1084.648855500517</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>912.0871439837415</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>746.2091511852643</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="E16" t="n">
-        <v>576.4511474360015</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>399.7440933977578</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>234.1528184235854</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.72201733600954</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.381627238809</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.140258536806</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.260812115261</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U16" t="n">
-        <v>2308.260812115261</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V16" t="n">
-        <v>2021.305303985692</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.278899571983</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.887144905395</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1276.467474219504</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2251.958900913286</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.218751900442</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.308967074886</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.534222233181</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6667926423893</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2689612656532</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.13880670886942</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.11253943818</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.292206008486</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4289.602080841882</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.100866800477</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4752.448992984314</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4532.381765857353</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.159463174369</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>3910.542513108196</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3505.687058519229</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3086.54459509854</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.258471398193</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.780177947891</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.218466431116</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3404736326387</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5824698833759</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
-        <v>490.875415845132</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2841408709597</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3819665613342</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.381627238809</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.140258536806</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.260812115261</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.827811368366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.872303238797</v>
+        <v>1999.901442036169</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.845898825088</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.454144158501</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y19" t="n">
-        <v>1225.454144158501</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.944435344159</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.801962527582</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.892177702026</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.117432860322</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2500032695293</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8521718927932</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.72201733600954</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.566629570271</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.876504403667</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.375290362263</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.367300288225</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.367300288225</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.144997605242</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.528047539068</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.672592950102</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.530129529413</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.244005829066</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.780177947891</v>
+        <v>965.4711828007304</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.218466431116</v>
+        <v>792.9094712839553</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3404736326388</v>
+        <v>627.0314784854781</v>
       </c>
       <c r="E22" t="n">
-        <v>667.582469883376</v>
+        <v>457.2734747362153</v>
       </c>
       <c r="F22" t="n">
-        <v>490.875415845132</v>
+        <v>280.5664206979715</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2841408709597</v>
+        <v>114.9751457237992</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3819665613342</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.963805944181</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.722437242177</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.842990820633</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.436626433066</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.436626433066</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.410222019358</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.01846735277</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.598796666878</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899149</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406523</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477107</v>
+        <v>1057.14643235498</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382046</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397273</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904646</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>372.2416702522208</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780485</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1038.788501752347</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>866.6435796084321</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>701.1823761828148</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>531.8411618064119</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>355.5508971410281</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517564</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2722.060823704771</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2476.598166656087</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U40" t="n">
-        <v>2260.316511502792</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1973.777792746082</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1702.168177705234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.193212411506</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.190331098474</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.674257000254</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>818.2293662024638</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>646.0844440585488</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>480.6232406329314</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>311.2820262565283</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>134.9917615911445</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2563.236244375627</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.757375952908</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1753.218657196199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1481.60904215535</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1236.634076861623</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.631195548591</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.846032561757</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4391.009733650901</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4391.009733650901</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.5453418998826</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559675</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D46" t="n">
-        <v>612.9392163303503</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5980019539475</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885634</v>
+        <v>126.849915585633</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.552220073047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.089563024362</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2172.073351650327</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.534632893618</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.925017852769</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.950052559042</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.94717124601</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>462.2379531515559</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>462.2379531515559</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>295.2857342505495</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259784</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.237953151556</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515559</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>411.4230632765286</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>33.81185438920556</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1126.736919799244</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.12684488708555</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.12684488708555</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.1268448870851</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>795.1148495849934</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8776227526682</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.0111327346209</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.7827269140524</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>268.6883005656956</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.5985112554901</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.446659489829159</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.4233680290253</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>268.688300565696</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>185.19577765662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>268.0111327346214</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.40912423087202</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.22000922290052</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>107.2592358276473</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933303</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.1172106585326</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.5921776627251</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9928159404447</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.992815940445</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755599.0046353652</v>
+        <v>761430.5637263776</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755599.0046353652</v>
+        <v>763081.9058699657</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>756766.3334490834</v>
+        <v>763081.9058699657</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732986.1031687725</v>
+        <v>733779.4657694937</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733701.2249754092</v>
+        <v>733779.4657694937</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733701.2249754092</v>
+        <v>733779.4657694938</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733701.2249754092</v>
+        <v>733779.4657694936</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>765032.7256979864</v>
+        <v>764745.7977279895</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765032.7256979864</v>
+        <v>764745.7977279895</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765032.7256979863</v>
+        <v>764745.7977279895</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>201055.2449589032</v>
       </c>
       <c r="C2" t="n">
-        <v>201055.2449589031</v>
+        <v>201055.2449589032</v>
       </c>
       <c r="D2" t="n">
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>189366.4970123399</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="F2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="G2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="H2" t="n">
-        <v>189551.248279621</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26347,13 +26347,13 @@
         <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="O2" t="n">
-        <v>197660.1290869443</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>11785.95316599778</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222498.058274643</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9680810514288</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18411.11667046245</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>9602.802925459693</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185704.9284082354</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
-        <v>330.0971833050935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485739</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180048.3547997648</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39415.12640599669</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
-        <v>39453.58090913448</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
-        <v>39453.58090913448</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39453.58090913447</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26451,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41501.47029804088</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41501.47029804088</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41501.47029804088</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61731.66755161459</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73411.76585188552</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188125.3768938423</v>
+        <v>-225622.5306517152</v>
       </c>
       <c r="C6" t="n">
-        <v>-45934.07623413248</v>
+        <v>-29881.57121566597</v>
       </c>
       <c r="D6" t="n">
-        <v>-52510.73055847398</v>
+        <v>-12541.02684175903</v>
       </c>
       <c r="E6" t="n">
-        <v>-145958.4535201852</v>
+        <v>-85217.30248278759</v>
       </c>
       <c r="F6" t="n">
-        <v>76131.96611406798</v>
+        <v>76517.77272732684</v>
       </c>
       <c r="G6" t="n">
-        <v>76588.93419511935</v>
+        <v>76517.77272732678</v>
       </c>
       <c r="H6" t="n">
-        <v>76588.93419511932</v>
+        <v>76517.77272732684</v>
       </c>
       <c r="I6" t="n">
-        <v>60319.2868453394</v>
+        <v>60342.46354357976</v>
       </c>
       <c r="J6" t="n">
-        <v>-32284.06182918831</v>
+        <v>-81900.65030919375</v>
       </c>
       <c r="K6" t="n">
-        <v>78730.40351580188</v>
+        <v>64893.17060857379</v>
       </c>
       <c r="L6" t="n">
-        <v>69127.60059034219</v>
+        <v>78707.17917641925</v>
       </c>
       <c r="M6" t="n">
-        <v>-106974.5248924336</v>
+        <v>-56282.76543658427</v>
       </c>
       <c r="N6" t="n">
-        <v>78172.60164815838</v>
+        <v>78707.1791764192</v>
       </c>
       <c r="O6" t="n">
-        <v>78502.69883146352</v>
+        <v>78707.17917641926</v>
       </c>
       <c r="P6" t="n">
-        <v>78502.69883146351</v>
+        <v>78707.17917641926</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>462.2379531515559</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1207.430359406012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94209563145151</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.1924062544559</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.23528668462609</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145151</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544559</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145151</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544559</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.0074451529812</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.35360783225069</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>50.41615220922793</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.3579796189766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>367.6387245651728</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.3487700919779</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>259.5138651642009</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>308.3808099909302</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>462.2379531515559</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>462.2379531515559</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>295.2857342505495</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259784</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.237953151556</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515559</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>411.4230632765286</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>33.81185438920556</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1126.736919799244</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.12684488708555</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.12684488708555</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.1268448870851</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752277</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>795.1148495849934</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
